--- a/biology/Zoologie/Helicarionidae/Helicarionidae.xlsx
+++ b/biology/Zoologie/Helicarionidae/Helicarionidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Helicarionidae  est une famille de gastéropodes tropicaux terrestres appartenant à l'ordre des Stylommatophora.
 </t>
@@ -511,43 +523,216 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>N.B. : liste incomplète.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">N.B. : liste incomplète.
 Dryachloa F. G. Thompson et H.G. Lee, 1980
 Euconulus Reinhardt, 1883
 Guppya Morch, 1867
 Selon Wikispecies (le 27 octobre 2019):
-A
-Advena
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Helicarionidae</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Helicarionidae</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Liste des genres</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Advena
 Aenigmatoconcha
 Amenixesta
 Antiquarion
 Attenborougharion
-Austenia
-B
-Bathia
+Austenia</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Helicarionidae</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Helicarionidae</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Liste des genres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Bathia
 Brevisentis
-Burnettia
-C
-Caldwellia
+Burnettia</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Helicarionidae</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Helicarionidae</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Liste des genres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Caldwellia
 Chalepotaxis
 Colmanarion
 Cryptaustenia
 Ctenoglypta
 Ctenophila
-Cucullarion
-D
-Dancea
+Cucullarion</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Helicarionidae</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Helicarionidae</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Liste des genres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Dancea
 Delinitesta
 Dendrolamellaria
 Dendronitor
 Dimidarion
 Dupontia
 Durgella
-Durgellina
-E
-Echonitor
+Durgellina</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Helicarionidae</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Helicarionidae</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Liste des genres</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Echonitor
 Eddiella
 Einasleighana
 Elatonitor
@@ -557,46 +742,386 @@
 Eufretum
 Eungarion
 Eurychlamys
-Expocystis
-F
-Fastosarion
+Expocystis</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Helicarionidae</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Helicarionidae</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Liste des genres</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Fastosarion
 Fenestrarion
-Fijia
-G
-Girasia
-Gudeoconcha
-H
-Harmogenanina Germain, 1918
+Fijia</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Helicarionidae</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Helicarionidae</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Liste des genres</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Girasia
+Gudeoconcha</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Helicarionidae</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Helicarionidae</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Liste des genres</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Harmogenanina Germain, 1918
 Helicarion
 Holkeion
 Howearion
-Hymanarion
-I
-Ibycus
-Irenella
-K
-Kalidos
+Hymanarion</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Helicarionidae</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Helicarionidae</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Liste des genres</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Ibycus
+Irenella</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Helicarionidae</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Helicarionidae</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Liste des genres</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Kalidos
 Kermarion
-Kieconcha
-L
-Laconia
+Kieconcha</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Helicarionidae</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Helicarionidae</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Liste des genres</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Laconia
 Laocaia
 Levidens
-Luinarion
-M
-Macularion
+Luinarion</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Helicarionidae</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Helicarionidae</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Liste des genres</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Macularion
 Malandena
 Montanocystis
-Mysticarion
-N
-Nesaecia
+Mysticarion</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Helicarionidae</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Helicarionidae</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Liste des genres</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Nesaecia
 Nesonanina
-Nitor
-O
-Ovachlamys
-Owaraha
-P
-Pachystyla
+Nitor</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Helicarionidae</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Helicarionidae</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Liste des genres</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Ovachlamys
+Owaraha</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Helicarionidae</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Helicarionidae</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Liste des genres</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Pachystyla
 Palmervillea
 Parmacochlea
 Parmavitrina
@@ -611,15 +1136,117 @@
 Pseudaustenia
 Pseudophasis
 Pseudosaphtia
-Pseudosesara
-Q
-Quirosella
-R
-Rasama
+Pseudosesara</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Helicarionidae</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Helicarionidae</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Liste des genres</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Quirosella</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Helicarionidae</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Helicarionidae</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Liste des genres</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Rasama
 Rhyssotopsis
-Rotungia
-S
-Saphtia
+Rotungia</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Helicarionidae</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Helicarionidae</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Liste des genres</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Saphtia
 Satiella
 Sheaia
 Sigaloeista
@@ -627,24 +1254,228 @@
 Sitalarion
 Sivella
 Sophina
-Stanisicarion
-T
-Tarocystis
+Stanisicarion</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Helicarionidae</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Helicarionidae</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Liste des genres</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Tarocystis
 Teraia
 Thularion
 Torrecystis
-Tropicystis
-U
-Ubiquitarion
-Urazirochlamys
-V
-Vanmolia
-W
-Westracystis
-Z
-Zagmena
-Incertae sedis
-Advena
+Tropicystis</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Helicarionidae</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Helicarionidae</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Liste des genres</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>U</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Ubiquitarion
+Urazirochlamys</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Helicarionidae</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Helicarionidae</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Liste des genres</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Vanmolia</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Helicarionidae</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Helicarionidae</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Liste des genres</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Westracystis</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Helicarionidae</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Helicarionidae</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Liste des genres</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Z</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Zagmena</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Helicarionidae</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Helicarionidae</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Liste des genres</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Incertae sedis</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Advena
 Kermarion
 Kieconcha
 Ovachlamys
